--- a/biology/Botanique/Okellyaceae/Okellyaceae.xlsx
+++ b/biology/Botanique/Okellyaceae/Okellyaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Okellyaceae sont une famille d’algues vertes de l’ordre des Cladophorales .
 </t>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre type Okellya, nommé en l'honneur du phycologue irlandais Charles J. O'Kelly « pour ses travaux pionniers et influents sur la systématique des algues vertes[1] ».
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre type Okellya, nommé en l'honneur du phycologue irlandais Charles J. O'Kelly « pour ses travaux pionniers et influents sur la systématique des algues vertes ».
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (8 janvier 2022)[2] et AlgaeBase                                           (8 janvier 2022)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (8 janvier 2022) et AlgaeBase                                           (8 janvier 2022) :
 genre Okellya Leliaert &amp; Rueness, 2009</t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(en) Frederik Leliaert, Jan Rueness, Christian Boedeker, Christine A. Maggs, Ellen Cocquyt, Heroen Verbruggen et Olivier De Clerck, « Systematics of the marine microfilamentous green algae Uronema curvatum and Urospora microscopica (Chlorophyta) », European Journal of Phycology, Taylor &amp; Francis, vol. 44, no 4,‎ novembre 2009, p. 487-496 (ISSN 0967-0262 et 1469-4433, DOI 10.1080/09670260903229540, lire en ligne)</t>
         </is>
